--- a/data/trans_dic/P04D$notiene-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02388947924168785</v>
+        <v>0.02540220268171652</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1225665083564989</v>
+        <v>0.1248117230745248</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07587044145095757</v>
+        <v>0.07484884181573592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02908641599938393</v>
+        <v>0.02767762386168699</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1097618082894794</v>
+        <v>0.1068142908559161</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0614548652723765</v>
+        <v>0.05968565299264555</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03201479926322304</v>
+        <v>0.03075314085465124</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1258939338845202</v>
+        <v>0.125876629399034</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07634507667150468</v>
+        <v>0.07945193243449214</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0626166601717968</v>
+        <v>0.06444756807990121</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1967479345461414</v>
+        <v>0.1942453771714379</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1840678606545908</v>
+        <v>0.1826103550432827</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0682330960790629</v>
+        <v>0.07337366605845062</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1788150431667622</v>
+        <v>0.1770218432056517</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1565862101809698</v>
+        <v>0.1562381372748788</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05933359510058348</v>
+        <v>0.05843541678392693</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1761757806755671</v>
+        <v>0.1750324802855017</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1505993657908348</v>
+        <v>0.156811743083752</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03684736458774391</v>
+        <v>0.03695689788123509</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.135428392061414</v>
+        <v>0.1371641150459645</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1051283378898722</v>
+        <v>0.1043168924650523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01911873842574647</v>
+        <v>0.01845707251196594</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1418708718615385</v>
+        <v>0.1398925981515099</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.10412488707267</v>
+        <v>0.1000410487093986</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03229806170058346</v>
+        <v>0.03184827238313698</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1459831034208711</v>
+        <v>0.1464230447739789</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1131841259325558</v>
+        <v>0.1098063761133103</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07436621331495717</v>
+        <v>0.07321513571143383</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1976670033438294</v>
+        <v>0.1973424257118052</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1945777140377464</v>
+        <v>0.189425093698905</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04782809152912153</v>
+        <v>0.04769632483299411</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1998566457379742</v>
+        <v>0.2009171836405713</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1671829404263661</v>
+        <v>0.1654082891447565</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05669182690575421</v>
+        <v>0.05628494021194541</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.189051851414527</v>
+        <v>0.1879334071756527</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1675255945551421</v>
+        <v>0.1638726927592359</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02842248820589812</v>
+        <v>0.02747782523391422</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1078792008926847</v>
+        <v>0.1066547683811622</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1115279378242415</v>
+        <v>0.1123092670876048</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02701847269951177</v>
+        <v>0.02739905584217376</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1019069560584338</v>
+        <v>0.1018173693563598</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09417521956240767</v>
+        <v>0.09676539280081935</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03193800216132712</v>
+        <v>0.03122886371922577</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1112930839942296</v>
+        <v>0.1113770616778586</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1099924198809622</v>
+        <v>0.1097627846085585</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06411035803479086</v>
+        <v>0.06147773334380711</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1635683629904586</v>
+        <v>0.1629186748598218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1718308504505729</v>
+        <v>0.1724532231033015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05912673245680784</v>
+        <v>0.05951016761241876</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1543017586033366</v>
+        <v>0.1527975882375678</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.139691216674402</v>
+        <v>0.1420156844151276</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05487459644597198</v>
+        <v>0.05401641424106975</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1481077895045509</v>
+        <v>0.1479549415738858</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1444219777572348</v>
+        <v>0.1473662925928665</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02459281636113976</v>
+        <v>0.02498062019377496</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1271177331227015</v>
+        <v>0.1282658221095248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1004810437775257</v>
+        <v>0.09926626533494565</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02852752877333418</v>
+        <v>0.02831822191975913</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1071991196481013</v>
+        <v>0.1067640543372942</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1217483704926766</v>
+        <v>0.1197850674902859</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03076261391694579</v>
+        <v>0.03124163178737845</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1272198252942363</v>
+        <v>0.1253384034869319</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1164097663265511</v>
+        <v>0.1166615370100486</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05833965557650279</v>
+        <v>0.05931062632056773</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1906107678285079</v>
+        <v>0.1911577251491718</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.150275565075632</v>
+        <v>0.1503197395176322</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06507074615505617</v>
+        <v>0.06515251559211487</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1600635012397263</v>
+        <v>0.1622696328994096</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1617493485141397</v>
+        <v>0.1619535852270719</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0563228545302912</v>
+        <v>0.05542861402120276</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1673341138355136</v>
+        <v>0.1656294872617464</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1502436677752453</v>
+        <v>0.1491030764378128</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02933491415929338</v>
+        <v>0.03106818665388206</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1359495258207033</v>
+        <v>0.1324175341117331</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08550877968457855</v>
+        <v>0.0846346467328826</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02772373225189681</v>
+        <v>0.02818355445844975</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1254338791718815</v>
+        <v>0.1232066742227265</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1013649692851088</v>
+        <v>0.1038335548160867</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03353036708309304</v>
+        <v>0.03462340015649832</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.13862653188867</v>
+        <v>0.1376937076906437</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09880875229010724</v>
+        <v>0.09872805739102941</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0737582815252813</v>
+        <v>0.07347959640616138</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2065227305198677</v>
+        <v>0.2080933701901042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1335006749174725</v>
+        <v>0.1341421963433397</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.07188267521195726</v>
+        <v>0.07078432926386416</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.191257486018609</v>
+        <v>0.1943493462411386</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1445108215927852</v>
+        <v>0.1452898809766776</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.06425354979412168</v>
+        <v>0.06576333634269745</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1862038645664978</v>
+        <v>0.187433005381545</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1310790229838272</v>
+        <v>0.1309179643263032</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01272934122087855</v>
+        <v>0.01233814744796332</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1284450750724644</v>
+        <v>0.1256104408174748</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0791634064479607</v>
+        <v>0.07822487712463003</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02774394471363888</v>
+        <v>0.02807159329964876</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1155353266794062</v>
+        <v>0.1162793057903258</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09109985398298005</v>
+        <v>0.09062932310980264</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02545537392438663</v>
+        <v>0.0240704130205714</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1314630933335678</v>
+        <v>0.1289189037986863</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.08977370183948263</v>
+        <v>0.0900553862983391</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0512200547204409</v>
+        <v>0.04913937699068301</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2072494807536271</v>
+        <v>0.2054035406471477</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1319293081481665</v>
+        <v>0.1333625279682779</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0752665177429086</v>
+        <v>0.07061237750148301</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1918896514622552</v>
+        <v>0.187033236712997</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1365365405435475</v>
+        <v>0.1375756858056787</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.05379486572801219</v>
+        <v>0.05416503238984001</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1842946568317462</v>
+        <v>0.1826029574571699</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1266281920714896</v>
+        <v>0.1279193935972815</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.1695252695214291</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1196198601185662</v>
+        <v>0.1196198601185663</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.06758641093628087</v>
@@ -1318,7 +1318,7 @@
         <v>0.159102333216911</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.1211743941110117</v>
+        <v>0.1211743941110116</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01024151001953845</v>
+        <v>0.008741352436186909</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1295338957181476</v>
+        <v>0.1279348691664949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0898620463020695</v>
+        <v>0.08755051929688254</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0451502816843369</v>
+        <v>0.04277418262115999</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1147305326500539</v>
+        <v>0.1138727629362831</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09989201785421321</v>
+        <v>0.1007234541753535</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03510669335006121</v>
+        <v>0.03428258346803182</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1305995910910204</v>
+        <v>0.129644948245243</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1037121697772535</v>
+        <v>0.1031848041410638</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05339569977568337</v>
+        <v>0.05507891418538752</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2123284579345819</v>
+        <v>0.2120079759519801</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1551452916318808</v>
+        <v>0.1568995808543727</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09750748262664703</v>
+        <v>0.09759541892778079</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1985631021713192</v>
+        <v>0.1935528127926373</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1488249435086794</v>
+        <v>0.1494544951283752</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07228034360339471</v>
+        <v>0.07049369020826986</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1899780165502435</v>
+        <v>0.1877989454148854</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1428648056071856</v>
+        <v>0.145165374412284</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1418,7 @@
         <v>0.1452357703090898</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.1223639378106835</v>
+        <v>0.1223639378106836</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>0.04326075731441438</v>
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03384566356550287</v>
+        <v>0.03517308860647481</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1437744804225518</v>
+        <v>0.1451373952279078</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1115654676099222</v>
+        <v>0.1108409782948853</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03721902064283099</v>
+        <v>0.03864264193462147</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1337995162809068</v>
+        <v>0.1333751842801375</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1130635060993891</v>
+        <v>0.1132197684233264</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03810043427001802</v>
+        <v>0.03827860488532456</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.142546954119912</v>
+        <v>0.1421422505780028</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1145455784889667</v>
+        <v>0.1161558971256658</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04904729460277674</v>
+        <v>0.05049322007376019</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1716566963735141</v>
+        <v>0.1705318568377573</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1375324888667868</v>
+        <v>0.1359993340278883</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.05217069665148352</v>
+        <v>0.05265405878929837</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1577984943530133</v>
+        <v>0.1564832178878363</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1322159657464407</v>
+        <v>0.1329285740516338</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04819640019110853</v>
+        <v>0.04829319777385219</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.160674452504115</v>
+        <v>0.1598248832254253</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1310330881299298</v>
+        <v>0.1317008111128416</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10805</v>
+        <v>11489</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>51412</v>
+        <v>52354</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30691</v>
+        <v>30278</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>12457</v>
+        <v>11853</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43439</v>
+        <v>42272</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>22278</v>
+        <v>21637</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28191</v>
+        <v>27080</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>102631</v>
+        <v>102617</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>58559</v>
+        <v>60942</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28322</v>
+        <v>29150</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>82528</v>
+        <v>81479</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>74459</v>
+        <v>73870</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>29222</v>
+        <v>31423</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>70767</v>
+        <v>70057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>56764</v>
+        <v>56638</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>52247</v>
+        <v>51456</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>143622</v>
+        <v>142690</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>115515</v>
+        <v>120280</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25317</v>
+        <v>25393</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>79970</v>
+        <v>80995</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>50135</v>
+        <v>49748</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>11667</v>
+        <v>11264</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>79950</v>
+        <v>78836</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52052</v>
+        <v>50011</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>41902</v>
+        <v>41318</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>168470</v>
+        <v>168978</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>110557</v>
+        <v>107258</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>51096</v>
+        <v>50305</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>116722</v>
+        <v>116530</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>92792</v>
+        <v>90335</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29187</v>
+        <v>29107</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>112628</v>
+        <v>113226</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>83575</v>
+        <v>82688</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>73549</v>
+        <v>73021</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>218173</v>
+        <v>216883</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>163637</v>
+        <v>160069</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19353</v>
+        <v>18710</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>72182</v>
+        <v>71362</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>68726</v>
+        <v>69207</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19176</v>
+        <v>19446</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>67400</v>
+        <v>67341</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>58528</v>
+        <v>60138</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>44414</v>
+        <v>43428</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>148074</v>
+        <v>148185</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>136137</v>
+        <v>135853</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43654</v>
+        <v>41861</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>109443</v>
+        <v>109008</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>105886</v>
+        <v>106269</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41964</v>
+        <v>42236</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>102053</v>
+        <v>101058</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>86815</v>
+        <v>88260</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>76311</v>
+        <v>75117</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>197055</v>
+        <v>196852</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>178751</v>
+        <v>182395</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15033</v>
+        <v>15270</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>82124</v>
+        <v>82866</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70399</v>
+        <v>69548</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>17547</v>
+        <v>17418</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>69580</v>
+        <v>69298</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>89461</v>
+        <v>88018</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>37726</v>
+        <v>38314</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>164766</v>
+        <v>162329</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>167097</v>
+        <v>167458</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35662</v>
+        <v>36255</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>123144</v>
+        <v>123497</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>105286</v>
+        <v>105317</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>40024</v>
+        <v>40074</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>103894</v>
+        <v>105325</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>118854</v>
+        <v>119004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>69072</v>
+        <v>67976</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>216719</v>
+        <v>214511</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>215662</v>
+        <v>214025</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12597</v>
+        <v>13342</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>64973</v>
+        <v>63285</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>51931</v>
+        <v>51400</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12415</v>
+        <v>12621</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>62322</v>
+        <v>61215</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>61512</v>
+        <v>63010</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>29414</v>
+        <v>30373</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>135129</v>
+        <v>134219</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>119969</v>
+        <v>119871</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>31674</v>
+        <v>31554</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>98701</v>
+        <v>99452</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>81078</v>
+        <v>81468</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>32189</v>
+        <v>31697</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>95026</v>
+        <v>96562</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>87694</v>
+        <v>88167</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>56365</v>
+        <v>57690</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>181505</v>
+        <v>182704</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>159150</v>
+        <v>158955</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3943</v>
+        <v>3822</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>42943</v>
+        <v>41995</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>32157</v>
+        <v>31776</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9821</v>
+        <v>9937</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>43645</v>
+        <v>43926</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>39897</v>
+        <v>39691</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>16897</v>
+        <v>15978</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>93614</v>
+        <v>91802</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>75783</v>
+        <v>76021</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15867</v>
+        <v>15223</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>69290</v>
+        <v>68673</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>53591</v>
+        <v>54173</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>26644</v>
+        <v>24996</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>72489</v>
+        <v>70654</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>59795</v>
+        <v>60250</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>35708</v>
+        <v>35954</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>131235</v>
+        <v>130030</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>106894</v>
+        <v>107984</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2549</v>
+        <v>2176</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33290</v>
+        <v>32879</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>27875</v>
+        <v>27158</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>17563</v>
+        <v>16638</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>45912</v>
+        <v>45568</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>46367</v>
+        <v>46753</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>22393</v>
+        <v>21868</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>85826</v>
+        <v>85198</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>80312</v>
+        <v>79904</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>13289</v>
+        <v>13708</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>54568</v>
+        <v>54486</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>48126</v>
+        <v>48670</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>37928</v>
+        <v>37963</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>79459</v>
+        <v>77454</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>69081</v>
+        <v>69373</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>46105</v>
+        <v>44965</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>124847</v>
+        <v>123415</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>110631</v>
+        <v>112412</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>115741</v>
+        <v>120281</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>488021</v>
+        <v>492647</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>392931</v>
+        <v>390380</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>132280</v>
+        <v>137340</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>474258</v>
+        <v>472754</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>421460</v>
+        <v>422043</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>265704</v>
+        <v>266947</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>989118</v>
+        <v>986310</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>830412</v>
+        <v>842087</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>167726</v>
+        <v>172671</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>582663</v>
+        <v>578845</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>484387</v>
+        <v>478987</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>185420</v>
+        <v>187138</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>559323</v>
+        <v>554661</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>492854</v>
+        <v>495510</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>336111</v>
+        <v>336786</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1114903</v>
+        <v>1109008</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>949941</v>
+        <v>954781</v>
       </c>
     </row>
     <row r="36">
